--- a/hw6.xlsx
+++ b/hw6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keith\Source\Repos\xllgjr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IEUser\Source\Repos\xllgjr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_kappa">Sheet1!$C$7:$C$23</definedName>
+    <definedName name="_kappa">Sheet1!$C$7:$C$56</definedName>
     <definedName name="_M">Sheet1!$E$7</definedName>
     <definedName name="_n">Sheet1!$D$7</definedName>
     <definedName name="x">Sheet1!$B$7</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>_kappa</t>
   </si>
@@ -111,6 +111,9 @@
   <si>
     <t>excel G</t>
   </si>
+  <si>
+    <t>Note: Increasing the number of iteration doesn't minimize the scale of the error (still e-5)</t>
+  </si>
 </sst>
 </file>
 
@@ -140,12 +143,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -161,7 +170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -170,6 +179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -451,16 +461,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O56"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
@@ -469,36 +489,36 @@
         <v>General Option Pricing</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N3">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C4">
         <f>_xll.DISTRIBUTION.G(x, _kappa, _n, _M)</f>
-        <v>0.53787709018694785</v>
+        <v>0.18406012753010001</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E4">
         <f>L4-K4</f>
-        <v>0.53785747637787584</v>
+        <v>0.18406012534675942</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G4">
         <f>C4-E4</f>
-        <v>1.9613809072005495E-5</v>
+        <v>2.1833405916549253E-9</v>
       </c>
       <c r="K4">
-        <f>SUM(K7:K23)</f>
-        <v>1.9703608991531079E-3</v>
+        <f>SUM(K7:K56)</f>
+        <v>0.35576771193026957</v>
       </c>
       <c r="L4">
         <f>NORMSDIST(x)</f>
@@ -511,7 +531,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -537,8 +557,8 @@
         <v>7</v>
       </c>
       <c r="K6">
-        <f>EXP(-x^2/2)/SQRT(2*PI())</f>
-        <v>0.40094198690364191</v>
+        <f>EXP(-(x^2)/2)/SQRT(2*PI())</f>
+        <v>0.39695254747701181</v>
       </c>
       <c r="N6" t="s">
         <v>8</v>
@@ -547,13 +567,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>0.1</v>
       </c>
       <c r="C7">
-        <f>O7</f>
-        <v>5.0000000000000001E-3</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -562,20 +581,21 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
+        <f>_xll.POLYNOMIAL.BELL(G7,_kappa)</f>
         <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7">
         <f>(H7*I7/J7)*$K$6</f>
-        <v>0</v>
+        <v>0.39695254747701181</v>
       </c>
       <c r="N7">
         <f t="array" ref="N7:N56">_xll.CUMULANT.POISSON(N3, N4)</f>
@@ -586,28 +606,27 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C8">
-        <f t="shared" ref="C8:C23" si="0">O8</f>
-        <v>2.5000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8">
         <f>_xll.POLYNOMIAL.BELL(G8,_kappa)</f>
-        <v>5.0000000000000001E-3</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <f>_xll.POLYNOMIAL.HERMITE(G7, x)</f>
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8">
-        <f t="shared" ref="K8:K23" si="1">(H8*I8/J8)*$K$6</f>
-        <v>2.0047099345182097E-3</v>
+        <f>(H8*I8/J8)*$K$6</f>
+        <v>1.9847627373850592E-2</v>
       </c>
       <c r="N8">
         <v>0.01</v>
@@ -616,29 +635,28 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>1.25E-3</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9">
         <f>_xll.POLYNOMIAL.BELL(G9,_kappa)</f>
-        <v>2.5249999999999999E-3</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <f>_xll.POLYNOMIAL.HERMITE(G8, x)</f>
-        <v>0.1</v>
+        <v>-0.99</v>
       </c>
       <c r="J9">
         <f>J8*G9</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K9">
-        <f t="shared" si="1"/>
-        <v>5.0618925846584791E-5</v>
+        <f>(H9*I9/J9)*$K$6</f>
+        <v>-6.5497170333706958E-2</v>
       </c>
       <c r="N9">
         <v>0.01</v>
@@ -647,29 +665,28 @@
         <v>1.25E-3</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>6.2500000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10">
         <f>_xll.POLYNOMIAL.BELL(G10,_kappa)</f>
-        <v>1.2876249999999999E-3</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <f>_xll.POLYNOMIAL.HERMITE(G9, x)</f>
-        <v>-0.99</v>
+        <v>-0.29900000000000004</v>
       </c>
       <c r="J10">
-        <f t="shared" ref="J10:J23" si="2">J9*G10</f>
-        <v>6</v>
+        <f t="shared" ref="J10:J23" si="0">J9*G10</f>
+        <v>24</v>
       </c>
       <c r="K10">
-        <f t="shared" si="1"/>
-        <v>-8.5183382771322302E-5</v>
+        <f t="shared" ref="K8:K23" si="1">(H10*I10/J10)*$K$6</f>
+        <v>-4.9453671539844398E-3</v>
       </c>
       <c r="N10">
         <v>0.01</v>
@@ -678,29 +695,28 @@
         <v>6.2500000000000001E-4</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C11">
-        <f t="shared" si="0"/>
-        <v>3.1250000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <f>_xll.POLYNOMIAL.BELL(G11,_kappa)</f>
-        <v>6.6912562500000001E-4</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <f>_xll.POLYNOMIAL.HERMITE(G10, x)</f>
-        <v>-0.29900000000000004</v>
+        <v>2.9400999999999997</v>
       </c>
       <c r="J11">
-        <f t="shared" si="2"/>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>120</v>
       </c>
       <c r="K11">
         <f t="shared" si="1"/>
-        <v>-3.3423286131298638E-6</v>
+        <v>9.7256682069763525E-3</v>
       </c>
       <c r="N11">
         <v>0.01</v>
@@ -709,29 +725,28 @@
         <v>3.1250000000000001E-4</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>1.5625E-4</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H12">
         <f>_xll.POLYNOMIAL.BELL(G12,_kappa)</f>
-        <v>3.6015937812499999E-4</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <f>_xll.POLYNOMIAL.HERMITE(G11, x)</f>
-        <v>2.9400999999999997</v>
+        <v>1.4900100000000003</v>
       </c>
       <c r="J12">
-        <f t="shared" si="2"/>
-        <v>120</v>
+        <f t="shared" si="0"/>
+        <v>720</v>
       </c>
       <c r="K12">
         <f t="shared" si="1"/>
-        <v>3.5379942441989525E-6</v>
+        <v>8.2147675731419792E-4</v>
       </c>
       <c r="N12">
         <v>0.01</v>
@@ -740,29 +755,28 @@
         <v>1.5625E-4</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C13">
-        <f t="shared" si="0"/>
-        <v>7.8125000000000002E-5</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H13">
         <f>_xll.POLYNOMIAL.BELL(G13,_kappa)</f>
-        <v>2.0610392970312499E-4</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <f>_xll.POLYNOMIAL.HERMITE(G12, x)</f>
-        <v>1.4900100000000003</v>
+        <v>-14.551498999999998</v>
       </c>
       <c r="J13">
-        <f t="shared" si="2"/>
-        <v>720</v>
+        <f t="shared" si="0"/>
+        <v>5040</v>
       </c>
       <c r="K13">
         <f t="shared" si="1"/>
-        <v>1.710111774890026E-7</v>
+        <v>-1.1460822614403155E-3</v>
       </c>
       <c r="N13">
         <v>0.01</v>
@@ -771,29 +785,28 @@
         <v>7.8125000000000002E-5</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14">
-        <f t="shared" si="0"/>
-        <v>3.9062500000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H14">
         <f>_xll.POLYNOMIAL.BELL(G14,_kappa)</f>
-        <v>1.2972276578914063E-4</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <f>_xll.POLYNOMIAL.HERMITE(G13, x)</f>
-        <v>-14.551498999999998</v>
+        <v>-10.395209900000003</v>
       </c>
       <c r="J14">
-        <f t="shared" si="2"/>
-        <v>5040</v>
+        <f t="shared" si="0"/>
+        <v>40320</v>
       </c>
       <c r="K14">
         <f t="shared" si="1"/>
-        <v>-1.5016714887260652E-7</v>
+        <v>-1.0234139512309658E-4</v>
       </c>
       <c r="N14">
         <v>0.01</v>
@@ -802,29 +815,28 @@
         <v>3.9062500000000001E-5</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C15">
-        <f t="shared" si="0"/>
-        <v>1.953125E-5</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H15">
         <f>_xll.POLYNOMIAL.BELL(G15,_kappa)</f>
-        <v>9.251216900890664E-5</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <f>_xll.POLYNOMIAL.HERMITE(G14, x)</f>
-        <v>-10.395209900000003</v>
+        <v>100.82097200999999</v>
       </c>
       <c r="J15">
-        <f t="shared" si="2"/>
-        <v>40320</v>
+        <f t="shared" si="0"/>
+        <v>362880</v>
       </c>
       <c r="K15">
         <f t="shared" si="1"/>
-        <v>-9.5629776598032397E-9</v>
+        <v>1.1028753769421848E-4</v>
       </c>
       <c r="N15">
         <v>0.01</v>
@@ -833,29 +845,28 @@
         <v>1.953125E-5</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C16">
-        <f t="shared" si="0"/>
-        <v>9.7656250000000002E-6</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H16">
         <f>_xll.POLYNOMIAL.BELL(G16,_kappa)</f>
-        <v>7.5397261231686724E-5</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <f>_xll.POLYNOMIAL.HERMITE(G15, x)</f>
-        <v>100.82097200999999</v>
+        <v>93.243776401000019</v>
       </c>
       <c r="J16">
-        <f t="shared" si="2"/>
-        <v>362880</v>
+        <f t="shared" si="0"/>
+        <v>3628800</v>
       </c>
       <c r="K16">
         <f t="shared" si="1"/>
-        <v>8.3989492313143614E-9</v>
+        <v>1.0199888276772992E-5</v>
       </c>
       <c r="N16">
         <v>0.01</v>
@@ -866,27 +877,26 @@
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C17">
-        <f t="shared" si="0"/>
-        <v>4.8828125000000001E-6</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H17">
         <f>_xll.POLYNOMIAL.BELL(G17,_kappa)</f>
-        <v>6.9116528697143594E-5</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <f>_xll.POLYNOMIAL.HERMITE(G16, x)</f>
-        <v>93.243776401000019</v>
+        <v>-898.06437044989991</v>
       </c>
       <c r="J17">
-        <f t="shared" si="2"/>
-        <v>3628800</v>
+        <f t="shared" si="0"/>
+        <v>39916800</v>
       </c>
       <c r="K17">
         <f t="shared" si="1"/>
-        <v>7.1206604633181317E-10</v>
+        <v>-8.9307995542835764E-6</v>
       </c>
       <c r="N17">
         <v>0.01</v>
@@ -897,27 +907,26 @@
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C18">
-        <f t="shared" si="0"/>
-        <v>2.4414062500000001E-6</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H18">
         <f>_xll.POLYNOMIAL.BELL(G18,_kappa)</f>
-        <v>6.9474293519560131E-5</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <f>_xll.POLYNOMIAL.HERMITE(G17, x)</f>
-        <v>-898.06437044989991</v>
+        <v>-1022.2442010549901</v>
       </c>
       <c r="J18">
-        <f t="shared" si="2"/>
-        <v>39916800</v>
+        <f t="shared" si="0"/>
+        <v>479001600</v>
       </c>
       <c r="K18">
         <f t="shared" si="1"/>
-        <v>-6.2669672621332859E-10</v>
+        <v>-8.4714213846546851E-7</v>
       </c>
       <c r="N18">
         <v>0.01</v>
@@ -928,27 +937,26 @@
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C19">
-        <f t="shared" si="0"/>
-        <v>1.220703125E-6</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H19">
         <f>_xll.POLYNOMIAL.BELL(G19,_kappa)</f>
-        <v>7.5068427720186763E-5</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <f>_xll.POLYNOMIAL.HERMITE(G18, x)</f>
-        <v>-1022.2442010549901</v>
+        <v>9776.4836548434014</v>
       </c>
       <c r="J19">
-        <f t="shared" si="2"/>
-        <v>479001600</v>
+        <f t="shared" si="0"/>
+        <v>6227020800</v>
       </c>
       <c r="K19">
         <f t="shared" si="1"/>
-        <v>-6.4232754980928654E-11</v>
+        <v>6.2321938801897941E-7</v>
       </c>
       <c r="N19">
         <v>0.01</v>
@@ -959,27 +967,26 @@
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C20">
-        <f t="shared" si="0"/>
-        <v>6.1035156250000001E-7</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20">
         <f>_xll.POLYNOMIAL.BELL(G20,_kappa)</f>
-        <v>8.6329410248603636E-5</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <f>_xll.POLYNOMIAL.HERMITE(G19, x)</f>
-        <v>9776.4836548434014</v>
+        <v>13244.57877814422</v>
       </c>
       <c r="J20">
-        <f t="shared" si="2"/>
-        <v>6227020800</v>
+        <f t="shared" si="0"/>
+        <v>87178291200</v>
       </c>
       <c r="K20">
         <f t="shared" si="1"/>
-        <v>5.4342882943006564E-11</v>
+        <v>6.0307092670386226E-8</v>
       </c>
       <c r="N20">
         <v>0.01</v>
@@ -990,27 +997,26 @@
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C21">
-        <f t="shared" si="0"/>
-        <v>3.0517578125000001E-7</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H21">
         <f>_xll.POLYNOMIAL.BELL(G21,_kappa)</f>
-        <v>1.0535027375867766E-4</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <f>_xll.POLYNOMIAL.HERMITE(G20, x)</f>
-        <v>13244.57877814422</v>
+        <v>-125769.8296351498</v>
       </c>
       <c r="J21">
-        <f t="shared" si="2"/>
-        <v>87178291200</v>
+        <f t="shared" si="0"/>
+        <v>1307674368000</v>
       </c>
       <c r="K21">
         <f t="shared" si="1"/>
-        <v>6.4172211396227323E-12</v>
+        <v>-3.81782005452771E-8</v>
       </c>
       <c r="N21">
         <v>0.01</v>
@@ -1021,27 +1027,26 @@
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C22">
-        <f t="shared" si="0"/>
-        <v>1.52587890625E-7</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H22">
         <f>_xll.POLYNOMIAL.BELL(G22,_kappa)</f>
-        <v>1.3636663801319489E-4</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <f>_xll.POLYNOMIAL.HERMITE(G21, x)</f>
-        <v>-125769.8296351498</v>
+        <v>-198001.08585753405</v>
       </c>
       <c r="J22">
-        <f t="shared" si="2"/>
-        <v>1307674368000</v>
+        <f t="shared" si="0"/>
+        <v>20922789888000</v>
       </c>
       <c r="K22">
         <f t="shared" si="1"/>
-        <v>-5.2585563638122644E-12</v>
+        <v>-3.756527492513846E-9</v>
       </c>
       <c r="N22">
         <v>0.01</v>
@@ -1052,27 +1057,26 @@
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C23">
-        <f t="shared" si="0"/>
-        <v>7.6293945312500002E-8</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H23">
         <f>_xll.POLYNOMIAL.BELL(G23,_kappa)</f>
-        <v>1.8705386391270706E-4</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <f>_xll.POLYNOMIAL.HERMITE(G22, x)</f>
-        <v>-198001.08585753405</v>
+        <v>1866747.3359414935</v>
       </c>
       <c r="J23">
-        <f t="shared" si="2"/>
-        <v>20922789888000</v>
+        <f t="shared" si="0"/>
+        <v>355687428096000</v>
       </c>
       <c r="K23">
         <f t="shared" si="1"/>
-        <v>-7.0973496324736685E-13</v>
+        <v>2.0833182507026999E-9</v>
       </c>
       <c r="N23">
         <v>0.01</v>
@@ -1082,6 +1086,28 @@
       </c>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>18</v>
+      </c>
+      <c r="H24">
+        <f>_xll.POLYNOMIAL.BELL(G24,_kappa)</f>
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f>_xll.POLYNOMIAL.HERMITE(G23, x)</f>
+        <v>3354692.1073146942</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ref="J24:J56" si="2">J23*G24</f>
+        <v>6402373705728000</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ref="K24:K56" si="3">(H24*I24/J24)*$K$6</f>
+        <v>2.0799372845234026E-10</v>
+      </c>
       <c r="N24">
         <v>0.01</v>
       </c>
@@ -1090,6 +1116,28 @@
       </c>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>19</v>
+      </c>
+      <c r="H25">
+        <f>_xll.POLYNOMIAL.BELL(G25,_kappa)</f>
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f>_xll.POLYNOMIAL.HERMITE(G24, x)</f>
+        <v>-31399235.500273921</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>1.21645100408832E+17</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>-1.024620513179289E-10</v>
+      </c>
       <c r="N25">
         <v>0.01</v>
       </c>
@@ -1098,6 +1146,28 @@
       </c>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>20</v>
+      </c>
+      <c r="H26">
+        <f>_xll.POLYNOMIAL.BELL(G26,_kappa)</f>
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <f>_xll.POLYNOMIAL.HERMITE(G25, x)</f>
+        <v>-63524381.481691889</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>2.43290200817664E+18</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>-1.0364644762226815E-11</v>
+      </c>
       <c r="N26">
         <v>0.01</v>
       </c>
@@ -1106,6 +1176,28 @@
       </c>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>21</v>
+      </c>
+      <c r="H27">
+        <f>_xll.POLYNOMIAL.BELL(G27,_kappa)</f>
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <f>_xll.POLYNOMIAL.HERMITE(G26, x)</f>
+        <v>590233036.35703528</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>5.109094217170944E+19</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="3"/>
+        <v>4.5858325845623698E-12</v>
+      </c>
       <c r="N27">
         <v>0.01</v>
       </c>
@@ -1114,6 +1206,28 @@
       </c>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>22</v>
+      </c>
+      <c r="H28">
+        <f>_xll.POLYNOMIAL.BELL(G28,_kappa)</f>
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <f>_xll.POLYNOMIAL.HERMITE(G27, x)</f>
+        <v>1329510933.2695413</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>1.1240007277776077E+21</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="3"/>
+        <v>4.695306140089118E-13</v>
+      </c>
       <c r="N28">
         <v>0.01</v>
       </c>
@@ -1122,6 +1236,28 @@
       </c>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>23</v>
+      </c>
+      <c r="H29">
+        <f>_xll.POLYNOMIAL.BELL(G29,_kappa)</f>
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <f>_xll.POLYNOMIAL.HERMITE(G28, x)</f>
+        <v>-12261942670.170788</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>2.5852016738884978E+22</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="3"/>
+        <v>-1.8827967771737186E-13</v>
+      </c>
       <c r="N29">
         <v>0.01</v>
       </c>
@@ -1130,6 +1266,28 @@
       </c>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>24</v>
+      </c>
+      <c r="H30">
+        <f>_xll.POLYNOMIAL.BELL(G30,_kappa)</f>
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <f>_xll.POLYNOMIAL.HERMITE(G29, x)</f>
+        <v>-30475434798.946987</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>6.2044840173323941E+23</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="3"/>
+        <v>-1.9497675302438433E-14</v>
+      </c>
       <c r="N30">
         <v>0.01</v>
       </c>
@@ -1138,6 +1296,28 @@
       </c>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>25</v>
+      </c>
+      <c r="H31">
+        <f>_xll.POLYNOMIAL.BELL(G31,_kappa)</f>
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <f>_xll.POLYNOMIAL.HERMITE(G30, x)</f>
+        <v>278977137934.03339</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="2"/>
+        <v>1.5511210043330986E+25</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="3"/>
+        <v>7.1393969446228335E-15</v>
+      </c>
       <c r="N31">
         <v>0.01</v>
       </c>
@@ -1146,6 +1326,28 @@
       </c>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>26</v>
+      </c>
+      <c r="H32">
+        <f>_xll.POLYNOMIAL.BELL(G32,_kappa)</f>
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <f>_xll.POLYNOMIAL.HERMITE(G31, x)</f>
+        <v>759308148968.13098</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="2"/>
+        <v>4.0329146112660565E+26</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="3"/>
+        <v>7.4737338403089151E-16</v>
+      </c>
       <c r="N32">
         <v>0.01</v>
       </c>
@@ -1153,7 +1355,29 @@
         <v>1.4901161193847657E-10</v>
       </c>
     </row>
-    <row r="33" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>27</v>
+      </c>
+      <c r="H33">
+        <f>_xll.POLYNOMIAL.BELL(G33,_kappa)</f>
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <f>_xll.POLYNOMIAL.HERMITE(G32, x)</f>
+        <v>-6898497633454.0215</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="2"/>
+        <v>1.0888869450418352E+28</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="3"/>
+        <v>-2.5148397837192384E-16</v>
+      </c>
       <c r="N33">
         <v>0.01</v>
       </c>
@@ -1161,7 +1385,29 @@
         <v>7.4505805969238283E-11</v>
       </c>
     </row>
-    <row r="34" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>28</v>
+      </c>
+      <c r="H34">
+        <f>_xll.POLYNOMIAL.BELL(G34,_kappa)</f>
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <f>_xll.POLYNOMIAL.HERMITE(G33, x)</f>
+        <v>-20431861636516.809</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="2"/>
+        <v>3.0488834461171384E+29</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="3"/>
+        <v>-2.6601474505829863E-17</v>
+      </c>
       <c r="N34">
         <v>0.01</v>
       </c>
@@ -1169,7 +1415,29 @@
         <v>3.7252902984619141E-11</v>
       </c>
     </row>
-    <row r="35" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>29</v>
+      </c>
+      <c r="H35">
+        <f>_xll.POLYNOMIAL.BELL(G35,_kappa)</f>
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <f>_xll.POLYNOMIAL.HERMITE(G34, x)</f>
+        <v>184216249939606.91</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="2"/>
+        <v>8.8417619937397008E+30</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="3"/>
+        <v>8.2704227677655432E-18</v>
+      </c>
       <c r="N35">
         <v>0.01</v>
       </c>
@@ -1177,7 +1445,29 @@
         <v>1.8626451492309571E-11</v>
       </c>
     </row>
-    <row r="36" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>30</v>
+      </c>
+      <c r="H36">
+        <f>_xll.POLYNOMIAL.BELL(G36,_kappa)</f>
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <f>_xll.POLYNOMIAL.HERMITE(G35, x)</f>
+        <v>590513750816431.37</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="2"/>
+        <v>2.6525285981219103E+32</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="3"/>
+        <v>8.8370748527558183E-19</v>
+      </c>
       <c r="N36">
         <v>0.01</v>
       </c>
@@ -1185,7 +1475,29 @@
         <v>9.3132257461547854E-12</v>
       </c>
     </row>
-    <row r="37" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>31</v>
+      </c>
+      <c r="H37">
+        <f>_xll.POLYNOMIAL.BELL(G37,_kappa)</f>
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <f>_xll.POLYNOMIAL.HERMITE(G36, x)</f>
+        <v>-5283219873166957</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="2"/>
+        <v>8.2228386541779224E+33</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="3"/>
+        <v>-2.5504423420362795E-19</v>
+      </c>
       <c r="N37">
         <v>0.01</v>
       </c>
@@ -1194,7 +1506,29 @@
         <v>3.7252902984619142E-13</v>
       </c>
     </row>
-    <row r="38" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>32</v>
+      </c>
+      <c r="H38">
+        <f>_xll.POLYNOMIAL.BELL(G38,_kappa)</f>
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <f>_xll.POLYNOMIAL.HERMITE(G37, x)</f>
+        <v>-1.8243734511809636E+16</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="2"/>
+        <v>2.6313083693369352E+35</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="3"/>
+        <v>-2.752203798820433E-20</v>
+      </c>
       <c r="N38">
         <v>0.01</v>
       </c>
@@ -1202,7 +1536,29 @@
         <v>1.3877787807814459E-23</v>
       </c>
     </row>
-    <row r="39" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>33</v>
+      </c>
+      <c r="H39">
+        <f>_xll.POLYNOMIAL.BELL(G39,_kappa)</f>
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <f>_xll.POLYNOMIAL.HERMITE(G38, x)</f>
+        <v>1.6195544261699472E+17</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="2"/>
+        <v>8.6833176188118859E+36</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="3"/>
+        <v>7.4036938813922477E-21</v>
+      </c>
       <c r="N39">
         <v>0.01</v>
       </c>
@@ -1210,7 +1566,29 @@
         <v>5.1698788284564239E-34</v>
       </c>
     </row>
-    <row r="40" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>34</v>
+      </c>
+      <c r="H40">
+        <f>_xll.POLYNOMIAL.BELL(G40,_kappa)</f>
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <f>_xll.POLYNOMIAL.HERMITE(G39, x)</f>
+        <v>5.9999504863960781E+17</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="2"/>
+        <v>2.9523279903960412E+38</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="3"/>
+        <v>8.0671783015252511E-22</v>
+      </c>
       <c r="N40">
         <v>0.01</v>
       </c>
@@ -1218,7 +1596,29 @@
         <v>1.9259299443872362E-44</v>
       </c>
     </row>
-    <row r="41" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>35</v>
+      </c>
+      <c r="H41">
+        <f>_xll.POLYNOMIAL.BELL(G41,_kappa)</f>
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <f>_xll.POLYNOMIAL.HERMITE(G40, x)</f>
+        <v>-5.2845301014968648E+18</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="2"/>
+        <v>1.0333147966386144E+40</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="3"/>
+        <v>-2.0300761131380299E-22</v>
+      </c>
       <c r="N41">
         <v>0.01</v>
       </c>
@@ -1226,7 +1626,29 @@
         <v>7.1746481373430647E-55</v>
       </c>
     </row>
-    <row r="42" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>36</v>
+      </c>
+      <c r="H42">
+        <f>_xll.POLYNOMIAL.BELL(G42,_kappa)</f>
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <f>_xll.POLYNOMIAL.HERMITE(G41, x)</f>
+        <v>-2.0928284663896351E+19</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="2"/>
+        <v>3.7199332678990118E+41</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="3"/>
+        <v>-2.233248640062235E-23</v>
+      </c>
       <c r="N42">
         <v>0.01</v>
       </c>
@@ -1234,7 +1656,29 @@
         <v>2.6727647100921961E-65</v>
       </c>
     </row>
-    <row r="43" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>37</v>
+      </c>
+      <c r="H43">
+        <f>_xll.POLYNOMIAL.BELL(G43,_kappa)</f>
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <f>_xll.POLYNOMIAL.HERMITE(G42, x)</f>
+        <v>1.8286572508600061E+20</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="2"/>
+        <v>1.3763753091226343E+43</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="3"/>
+        <v>5.2739260097153637E-24</v>
+      </c>
       <c r="N43">
         <v>0.01</v>
       </c>
@@ -1242,7 +1686,29 @@
         <v>9.956824444577829E-76</v>
       </c>
     </row>
-    <row r="44" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>38</v>
+      </c>
+      <c r="H44">
+        <f>_xll.POLYNOMIAL.BELL(G44,_kappa)</f>
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <f>_xll.POLYNOMIAL.HERMITE(G43, x)</f>
+        <v>7.7170482040886867E+20</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="2"/>
+        <v>5.2302261746660104E+44</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="3"/>
+        <v>5.8569206021219879E-25</v>
+      </c>
       <c r="N44">
         <v>0.01</v>
       </c>
@@ -1250,7 +1716,29 @@
         <v>3.7092061506874224E-86</v>
       </c>
     </row>
-    <row r="45" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>39</v>
+      </c>
+      <c r="H45">
+        <f>_xll.POLYNOMIAL.BELL(G45,_kappa)</f>
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <f>_xll.POLYNOMIAL.HERMITE(G44, x)</f>
+        <v>-6.6888613461411349E+21</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="2"/>
+        <v>2.0397882081197442E+46</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="3"/>
+        <v>-1.3016844300314578E-25</v>
+      </c>
       <c r="N45">
         <v>0.01</v>
       </c>
@@ -1258,7 +1746,29 @@
         <v>1.3817869688151115E-96</v>
       </c>
     </row>
-    <row r="46" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>40</v>
+      </c>
+      <c r="H46">
+        <f>_xll.POLYNOMIAL.BELL(G46,_kappa)</f>
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <f>_xll.POLYNOMIAL.HERMITE(G45, x)</f>
+        <v>-2.9993669310151123E+22</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="2"/>
+        <v>8.1591528324789768E+47</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="3"/>
+        <v>-1.459227898447168E-26</v>
+      </c>
       <c r="N46">
         <v>0.01</v>
       </c>
@@ -1266,7 +1776,29 @@
         <v>5.1475575894680304E-107</v>
       </c>
     </row>
-    <row r="47" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>41</v>
+      </c>
+      <c r="H47">
+        <f>_xll.POLYNOMIAL.BELL(G47,_kappa)</f>
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <f>_xll.POLYNOMIAL.HERMITE(G46, x)</f>
+        <v>2.5786622556848913E+23</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="2"/>
+        <v>3.3452526613163803E+49</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="3"/>
+        <v>3.0598781470639014E-27</v>
+      </c>
       <c r="N47">
         <v>0.01</v>
       </c>
@@ -1274,7 +1806,29 @@
         <v>1.917614634881925E-117</v>
       </c>
     </row>
-    <row r="48" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>42</v>
+      </c>
+      <c r="H48">
+        <f>_xll.POLYNOMIAL.BELL(G48,_kappa)</f>
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <f>_xll.POLYNOMIAL.HERMITE(G47, x)</f>
+        <v>1.2255333949628937E+24</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="2"/>
+        <v>1.4050061177528798E+51</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="3"/>
+        <v>3.4624660846796114E-28</v>
+      </c>
       <c r="N48">
         <v>0.01</v>
       </c>
@@ -1282,7 +1836,29 @@
         <v>7.143671195514221E-128</v>
       </c>
     </row>
-    <row r="49" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>43</v>
+      </c>
+      <c r="H49">
+        <f>_xll.POLYNOMIAL.BELL(G49,_kappa)</f>
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <f>_xll.POLYNOMIAL.HERMITE(G48, x)</f>
+        <v>-1.0449961908811764E+25</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="2"/>
+        <v>6.0415263063373834E+52</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="3"/>
+        <v>-6.8660447549310351E-29</v>
+      </c>
       <c r="N49">
         <v>0.01</v>
       </c>
@@ -1290,7 +1866,29 @@
         <v>2.661224900005095E-138</v>
       </c>
     </row>
-    <row r="50" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>44</v>
+      </c>
+      <c r="H50">
+        <f>_xll.POLYNOMIAL.BELL(G50,_kappa)</f>
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <f>_xll.POLYNOMIAL.HERMITE(G49, x)</f>
+        <v>-5.2517398779322711E+25</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="2"/>
+        <v>2.6582715747884485E+54</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="3"/>
+        <v>-7.8422819662348864E-30</v>
+      </c>
       <c r="N50">
         <v>0.01</v>
       </c>
@@ -1298,7 +1896,29 @@
         <v>9.9138353020142573E-149</v>
       </c>
     </row>
-    <row r="51" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>45</v>
+      </c>
+      <c r="H51">
+        <f>_xll.POLYNOMIAL.BELL(G51,_kappa)</f>
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <f>_xll.POLYNOMIAL.HERMITE(G50, x)</f>
+        <v>4.4409662220097358E+26</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="2"/>
+        <v>1.1962222086548019E+56</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="3"/>
+        <v>1.4736834363479355E-30</v>
+      </c>
       <c r="N51">
         <v>0.01</v>
       </c>
@@ -1306,7 +1926,29 @@
         <v>3.6931914471142955E-159</v>
       </c>
     </row>
-    <row r="52" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>46</v>
+      </c>
+      <c r="H52">
+        <f>_xll.POLYNOMIAL.BELL(G52,_kappa)</f>
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <f>_xll.POLYNOMIAL.HERMITE(G51, x)</f>
+        <v>2.3551752085102968E+27</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="2"/>
+        <v>5.5026221598120885E+57</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="3"/>
+        <v>1.698995082018844E-31</v>
+      </c>
       <c r="N52">
         <v>0.01</v>
       </c>
@@ -1314,7 +1956,29 @@
         <v>1.3758210268297403E-169</v>
       </c>
     </row>
-    <row r="53" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>47</v>
+      </c>
+      <c r="H53">
+        <f>_xll.POLYNOMIAL.BELL(G53,_kappa)</f>
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <f>_xll.POLYNOMIAL.HERMITE(G52, x)</f>
+        <v>-1.9748830478192784E+28</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="2"/>
+        <v>2.5862324151116818E+59</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="3"/>
+        <v>-3.0311848703944698E-32</v>
+      </c>
       <c r="N53">
         <v>0.01</v>
       </c>
@@ -1322,7 +1986,29 @@
         <v>5.1253327236687406E-180</v>
       </c>
     </row>
-    <row r="54" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>48</v>
+      </c>
+      <c r="H54">
+        <f>_xll.POLYNOMIAL.BELL(G54,_kappa)</f>
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <f>_xll.POLYNOMIAL.HERMITE(G53, x)</f>
+        <v>-1.1031294263929292E+29</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="2"/>
+        <v>1.2413915592536073E+61</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="3"/>
+        <v>-3.5274127066468177E-33</v>
+      </c>
       <c r="N54">
         <v>0.01</v>
       </c>
@@ -1330,7 +2016,29 @@
         <v>1.9093352271872539E-190</v>
       </c>
     </row>
-    <row r="55" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>49</v>
+      </c>
+      <c r="H55">
+        <f>_xll.POLYNOMIAL.BELL(G55,_kappa)</f>
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <f>_xll.POLYNOMIAL.HERMITE(G54, x)</f>
+        <v>9.1716373821113162E+29</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="2"/>
+        <v>6.0828186403426752E+62</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="3"/>
+        <v>5.985226650057381E-34</v>
+      </c>
       <c r="N55">
         <v>0.01</v>
       </c>
@@ -1338,7 +2046,29 @@
         <v>7.1128279983522518E-201</v>
       </c>
     </row>
-    <row r="56" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>50</v>
+      </c>
+      <c r="H56">
+        <f>_xll.POLYNOMIAL.BELL(G56,_kappa)</f>
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <f>_xll.POLYNOMIAL.HERMITE(G55, x)</f>
+        <v>5.3867376205071732E+30</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="2"/>
+        <v>3.0414093201713376E+64</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="3"/>
+        <v>7.0305539174520559E-35</v>
+      </c>
       <c r="N56">
         <v>0.01</v>
       </c>
